--- a/resultados/resultados_221124.xlsx
+++ b/resultados/resultados_221124.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C97CE-B5C5-F743-A092-3B16E909B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA47602C-936D-6449-B68A-F17A1B34B368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="500" windowWidth="21960" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:B103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2663,11 +2663,17 @@
       </c>
       <c r="D87">
         <f>D70+E87</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E87">
         <f>3*F87+G87</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2682,11 +2688,17 @@
       </c>
       <c r="D88">
         <f t="shared" ref="D88:D103" si="8">D71+E88</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <f t="shared" ref="E88:E103" si="9">3*F88+G88</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2701,11 +2713,17 @@
       </c>
       <c r="D89">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E89">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2720,11 +2738,17 @@
       </c>
       <c r="D90">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E90">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2739,11 +2763,17 @@
       </c>
       <c r="D91">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E91">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2758,11 +2788,17 @@
       </c>
       <c r="D92">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E92">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2777,11 +2813,17 @@
       </c>
       <c r="D93">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E93">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2796,11 +2838,17 @@
       </c>
       <c r="D94">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2815,11 +2863,17 @@
       </c>
       <c r="D95">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E95">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2834,14 +2888,20 @@
       </c>
       <c r="D96">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -2853,14 +2913,20 @@
       </c>
       <c r="D97">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E97">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -2872,14 +2938,20 @@
       </c>
       <c r="D98">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -2891,14 +2963,20 @@
       </c>
       <c r="D99">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -2910,14 +2988,20 @@
       </c>
       <c r="D100">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E100">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -2929,14 +3013,20 @@
       </c>
       <c r="D101">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -2948,14 +3038,20 @@
       </c>
       <c r="D102">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E102">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -2967,11 +3063,17 @@
       </c>
       <c r="D103">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E103">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.2">
